--- a/accounts.xlsx
+++ b/accounts.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-11-27 08:33:53</t>
+          <t>2024-11-27 23:10:57</t>
         </is>
       </c>
     </row>
